--- a/data/trans_dic/P1426-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1426-Provincia-trans_dic.xlsx
@@ -664,7 +664,7 @@
         <v>0.02634835120921175</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.01945594757092562</v>
+        <v>0.01945594757092563</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.006370261167345089</v>
+        <v>0.006159168113836169</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.009734063829755165</v>
+        <v>0.01021341244729017</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.009426170038664994</v>
+        <v>0.007557646144910133</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.009398580346590694</v>
+        <v>0.009428172636813476</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01352770438687463</v>
+        <v>0.01343140135647398</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01072600827420817</v>
+        <v>0.01035292468642478</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01040272879750757</v>
+        <v>0.01056436624659374</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01549614949082135</v>
+        <v>0.01443571324366917</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01266864429153081</v>
+        <v>0.01193744174602322</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03940944061361043</v>
+        <v>0.03829344639517555</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04932073835527075</v>
+        <v>0.0520567076942996</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03580933439761561</v>
+        <v>0.03653092542234353</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04793352268542971</v>
+        <v>0.04940566624741613</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05386667865331883</v>
+        <v>0.05253163447468406</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03265618652376596</v>
+        <v>0.03324928380913593</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03478436632000559</v>
+        <v>0.03622144754774727</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04320361735068361</v>
+        <v>0.04248506227470767</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03066775781405952</v>
+        <v>0.02998031196147436</v>
       </c>
     </row>
     <row r="7">
@@ -787,28 +787,28 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.001476582928598736</v>
+        <v>0.001475747812536384</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01158640661027139</v>
+        <v>0.01200606207506717</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01401613406665266</v>
+        <v>0.01479913285679564</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.002248228097295248</v>
+        <v>0.004160096290057641</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01064541253628263</v>
+        <v>0.01123719796925789</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.009376807520918982</v>
+        <v>0.009102712541746169</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.003782553476593579</v>
+        <v>0.004019369107067806</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01351902833975197</v>
+        <v>0.01364566379751512</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02807702573596979</v>
+        <v>0.02605703787372792</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01538435862624149</v>
+        <v>0.01434920175474275</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04023407749903202</v>
+        <v>0.03868891289825573</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0459210395218</v>
+        <v>0.05052514345457211</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02326714106678569</v>
+        <v>0.02368673719077816</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02973779657538959</v>
+        <v>0.02988661131517789</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02851881652857857</v>
+        <v>0.02673429088626099</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01594079492521328</v>
+        <v>0.01681453811227902</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03060922694941189</v>
+        <v>0.03161942852074953</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +873,7 @@
         <v>0.009469080274920612</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.0567460362913934</v>
+        <v>0.05674603629139341</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.01580536679631742</v>
@@ -882,7 +882,7 @@
         <v>0.007490117690801869</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.07327956276282316</v>
+        <v>0.07327956276282314</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.004227883800346676</v>
+        <v>0.004231085915100992</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06657390225341939</v>
+        <v>0.06841980188184721</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.003175827740120314</v>
+        <v>0.005886010616763596</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.002692272637927977</v>
+        <v>0.002680527300396855</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04039308892581676</v>
+        <v>0.04055401243720214</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.007523258423562399</v>
+        <v>0.007569521625411905</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.002795052977720395</v>
+        <v>0.002756161873982723</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.059369201814991</v>
+        <v>0.05807427522929497</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03945241100605993</v>
+        <v>0.04561664218132334</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02059050551694748</v>
+        <v>0.01958511355462408</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1212678609885954</v>
+        <v>0.1203306158672167</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03303250609777405</v>
+        <v>0.03640669621040028</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0264625405415072</v>
+        <v>0.02600224096467071</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07769908427742793</v>
+        <v>0.07843942776712227</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03026922657843802</v>
+        <v>0.02877539072567214</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01620805998673624</v>
+        <v>0.016860729627777</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.09053846667047698</v>
+        <v>0.09049311484367363</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +982,7 @@
         <v>0.007898267482344059</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.04032775473017855</v>
+        <v>0.04032775473017856</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.01054350668106103</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.002543286154051776</v>
+        <v>0.002578111723574882</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.00762961518849637</v>
+        <v>0.00797961668804149</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01615030497141099</v>
+        <v>0.01557377962319017</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.004991692883496793</v>
+        <v>0.004898057577824801</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02861024319375661</v>
+        <v>0.02750798557580255</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.004210497178905989</v>
+        <v>0.00518682664920937</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.006173574497863973</v>
+        <v>0.0063380014067792</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02609148665544709</v>
+        <v>0.02555849178684342</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02283824465459068</v>
+        <v>0.02501270797246792</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03904158070344847</v>
+        <v>0.03989831379915856</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04941208465454498</v>
+        <v>0.04599811150312755</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02813179469630495</v>
+        <v>0.02821053036566179</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02687031427351067</v>
+        <v>0.03044283171474759</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05560381900279449</v>
+        <v>0.05615952514779707</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01988781065615864</v>
+        <v>0.02010789409276819</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02509954784565946</v>
+        <v>0.02514890233082409</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04765144917921293</v>
+        <v>0.04581879746883095</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>0.01236644003280673</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.07079095439871101</v>
+        <v>0.070790954398711</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.05485343072118814</v>
@@ -1091,7 +1091,7 @@
         <v>0.04014462007231682</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.07798312638632084</v>
+        <v>0.07798312638632082</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.04518778079206015</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01465541988292393</v>
+        <v>0.01555342815414255</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04752070493537323</v>
+        <v>0.04758934732761108</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02862450591418611</v>
+        <v>0.02711825008617148</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01963880689179298</v>
+        <v>0.01965270306115132</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.0587550517204381</v>
+        <v>0.05856554640606697</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02966925616924355</v>
+        <v>0.02805140848423507</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01381269761866678</v>
+        <v>0.0129041038631829</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05882430590762051</v>
+        <v>0.05740844360975696</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06667597751769794</v>
+        <v>0.0732504996816505</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04637278865182727</v>
+        <v>0.04672757469094796</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.101248301459048</v>
+        <v>0.1008996455619852</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09517845495810694</v>
+        <v>0.0941066288271878</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07742229821088581</v>
+        <v>0.07733803633425416</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1063255063558091</v>
+        <v>0.1058059754721096</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.07038616027228312</v>
+        <v>0.06704816131557026</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.04683792983377751</v>
+        <v>0.05049516675637745</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.09278389228428993</v>
+        <v>0.09305074360617017</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.0146292548184278</v>
+        <v>0.01511383599303819</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.007014485821826714</v>
+        <v>0.006905621181404415</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1085056064801669</v>
+        <v>0.1068484320198022</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.003927551262610288</v>
+        <v>0.003945284522073917</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01498697273722529</v>
+        <v>0.01437525251172764</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.09752791172928042</v>
+        <v>0.09770543366009693</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01150055701865728</v>
+        <v>0.01154207433474274</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.01313333932343948</v>
+        <v>0.01349374565334261</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1077773630531941</v>
+        <v>0.1089603225548913</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.05784171673595232</v>
+        <v>0.06160066346970507</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04320618147534044</v>
+        <v>0.04193717243174922</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1696498848680231</v>
+        <v>0.1684493082003061</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.03845604379022415</v>
+        <v>0.03537701797152382</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.0563651613897785</v>
+        <v>0.05662622912568754</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1529598356822512</v>
+        <v>0.1542516658166583</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.03630818846306266</v>
+        <v>0.03973817602866271</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.04062197299428946</v>
+        <v>0.04011729444072148</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1512524468876962</v>
+        <v>0.1531934012768066</v>
       </c>
     </row>
     <row r="22">
@@ -1309,7 +1309,7 @@
         <v>0.04310060106677401</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.0667130000035652</v>
+        <v>0.06671300000356517</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.01964752165895549</v>
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01335439348119751</v>
+        <v>0.01336877046582442</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01182733946597731</v>
+        <v>0.01266902471788394</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.04036115178409358</v>
+        <v>0.04051769117958217</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.007758955280353103</v>
+        <v>0.007589189548769423</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02929292238460386</v>
+        <v>0.02870988289321818</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.05182528486866831</v>
+        <v>0.05286301982090925</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01278169601649236</v>
+        <v>0.0128876714761103</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.02288681214525006</v>
+        <v>0.02277332231428278</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.05077548549331628</v>
+        <v>0.05045395157719051</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03842329256923786</v>
+        <v>0.03781400391038254</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03435974092970426</v>
+        <v>0.03583034264441753</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.07530574045228119</v>
+        <v>0.07477248855522389</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.02773303260005756</v>
+        <v>0.02764048297095979</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.06440266747597426</v>
+        <v>0.06292927574014029</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.08442478762359341</v>
+        <v>0.08468339514331646</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.02901917438535564</v>
+        <v>0.02901395285701078</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.04381194096998009</v>
+        <v>0.04333151425048889</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.07368893836534773</v>
+        <v>0.07346763943138113</v>
       </c>
     </row>
     <row r="25">
@@ -1418,7 +1418,7 @@
         <v>0.006559499372083768</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>0.02365949132690563</v>
+        <v>0.02365949132690564</v>
       </c>
       <c r="I25" s="5" t="n">
         <v>0.007578558372083138</v>
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.001434046862438361</v>
+        <v>0.00133563991294155</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.005866109691042909</v>
+        <v>0.00588958771639514</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01242596695244346</v>
+        <v>0.01202107090542193</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.003981213037943295</v>
+        <v>0.004042283637702904</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.002583729471237264</v>
+        <v>0.002552888021835896</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.01653490242141459</v>
+        <v>0.01615283532955175</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.004017984582875439</v>
+        <v>0.004078644817843372</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.00552422744208213</v>
+        <v>0.005449726209095593</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.01623096453813953</v>
+        <v>0.01573548528501054</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01391048479212611</v>
+        <v>0.01263784833778388</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.0204837538885318</v>
+        <v>0.02105669955728562</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.0309056276406768</v>
+        <v>0.02966624803980129</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.01886446261832327</v>
+        <v>0.01841532732886393</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.0152700290038248</v>
+        <v>0.01512539182575976</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.03388250644901996</v>
+        <v>0.03307083694934002</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.0131185960101399</v>
+        <v>0.01293694359566184</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.01473611530414098</v>
+        <v>0.01521934171916729</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.02869035680998278</v>
+        <v>0.02799156045632626</v>
       </c>
     </row>
     <row r="28">
@@ -1527,7 +1527,7 @@
         <v>0.02035973878203713</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.04678578250453326</v>
+        <v>0.04678578250453325</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.01699278265991985</v>
@@ -1547,31 +1547,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.01127767184236873</v>
+        <v>0.01120961007590254</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.01095322904463467</v>
+        <v>0.01120163088602562</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.04105499326965997</v>
+        <v>0.04073453703125983</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.01461306786802217</v>
+        <v>0.01437262497095914</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.01649087558858238</v>
+        <v>0.0160469377708171</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.04157642490159796</v>
+        <v>0.04198735241255639</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.01382473261360779</v>
+        <v>0.0136588499028152</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.01462957226251833</v>
+        <v>0.01424773078084309</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.04276575126121353</v>
+        <v>0.04246155495986137</v>
       </c>
     </row>
     <row r="30">
@@ -1582,31 +1582,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.0203188953073588</v>
+        <v>0.01968892900750232</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.01873331918467006</v>
+        <v>0.01943862124025562</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.05377296798158967</v>
+        <v>0.05296961479724657</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.02393786466400844</v>
+        <v>0.02346933955258838</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.02624685951449256</v>
+        <v>0.02605388389876472</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.05253224971897013</v>
+        <v>0.05265527877680524</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.02042966418565298</v>
+        <v>0.02030944204941523</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.02112335616540547</v>
+        <v>0.02064375174792035</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.05094008397988608</v>
+        <v>0.05108548229795997</v>
       </c>
     </row>
     <row r="31">
@@ -1839,31 +1839,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1878</v>
+        <v>1815</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2859</v>
+        <v>3000</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3005</v>
+        <v>2410</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2700</v>
+        <v>2708</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3905</v>
+        <v>3878</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3390</v>
+        <v>3272</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6054</v>
+        <v>6148</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>9026</v>
+        <v>8408</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>8043</v>
+        <v>7579</v>
       </c>
     </row>
     <row r="7">
@@ -1874,31 +1874,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>11615</v>
+        <v>11287</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>14489</v>
+        <v>15292</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>11418</v>
+        <v>11648</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>13769</v>
+        <v>14192</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>15551</v>
+        <v>15166</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>10321</v>
+        <v>10509</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>20244</v>
+        <v>21080</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>25165</v>
+        <v>24746</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>19471</v>
+        <v>19035</v>
       </c>
     </row>
     <row r="8">
@@ -1989,25 +1989,25 @@
         <v>742</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6137</v>
+        <v>6359</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7341</v>
+        <v>7751</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1176</v>
+        <v>2176</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>5804</v>
+        <v>6126</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>9651</v>
+        <v>9369</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>3880</v>
+        <v>4123</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>14531</v>
+        <v>14667</v>
       </c>
     </row>
     <row r="11">
@@ -2018,31 +2018,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>14194</v>
+        <v>13173</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>7732</v>
+        <v>7212</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>21310</v>
+        <v>20492</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>24052</v>
+        <v>26463</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>12171</v>
+        <v>12390</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>16213</v>
+        <v>16294</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>29354</v>
+        <v>27517</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>16350</v>
+        <v>17246</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>32900</v>
+        <v>33986</v>
       </c>
     </row>
     <row r="12">
@@ -2127,31 +2127,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>21037</v>
+        <v>21620</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1083</v>
+        <v>2007</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>14395</v>
+        <v>14453</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>5003</v>
+        <v>5034</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1830</v>
+        <v>1805</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>39918</v>
+        <v>39048</v>
       </c>
     </row>
     <row r="15">
@@ -2162,31 +2162,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>12784</v>
+        <v>14782</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6559</v>
+        <v>6239</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>38320</v>
+        <v>38024</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>11265</v>
+        <v>12415</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8900</v>
+        <v>8745</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>27690</v>
+        <v>27954</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>20131</v>
+        <v>19138</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>10614</v>
+        <v>11042</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>60876</v>
+        <v>60845</v>
       </c>
     </row>
     <row r="16">
@@ -2271,31 +2271,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>951</v>
+        <v>964</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2823</v>
+        <v>2952</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6026</v>
+        <v>5811</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1942</v>
+        <v>1905</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>12072</v>
+        <v>11607</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3212</v>
+        <v>3957</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>4675</v>
+        <v>4799</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>20746</v>
+        <v>20322</v>
       </c>
     </row>
     <row r="19">
@@ -2306,31 +2306,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>8541</v>
+        <v>9354</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>14444</v>
+        <v>14761</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>18438</v>
+        <v>17164</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>10942</v>
+        <v>10973</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>10406</v>
+        <v>11790</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>23463</v>
+        <v>23697</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>15173</v>
+        <v>15341</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>19007</v>
+        <v>19044</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>37888</v>
+        <v>36431</v>
       </c>
     </row>
     <row r="20">
@@ -2415,31 +2415,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3116</v>
+        <v>3307</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>9773</v>
+        <v>9787</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>6286</v>
+        <v>5955</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>4293</v>
+        <v>4296</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>13278</v>
+        <v>13235</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>12823</v>
+        <v>12124</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>5937</v>
+        <v>5546</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>25391</v>
+        <v>24780</v>
       </c>
     </row>
     <row r="23">
@@ -2450,31 +2450,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>14177</v>
+        <v>15574</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>9795</v>
+        <v>9870</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>20823</v>
+        <v>20752</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>20900</v>
+        <v>20665</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>16924</v>
+        <v>16905</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>24028</v>
+        <v>23911</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>30422</v>
+        <v>28979</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>20131</v>
+        <v>21703</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>40050</v>
+        <v>40165</v>
       </c>
     </row>
     <row r="24">
@@ -2559,31 +2559,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>4008</v>
+        <v>4141</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1846</v>
+        <v>1817</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>29373</v>
+        <v>28925</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1092</v>
+        <v>1097</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>4093</v>
+        <v>3926</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>25659</v>
+        <v>25706</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>6349</v>
+        <v>6372</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>7043</v>
+        <v>7236</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>57532</v>
+        <v>58164</v>
       </c>
     </row>
     <row r="27">
@@ -2594,31 +2594,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>15848</v>
+        <v>16877</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>11369</v>
+        <v>11035</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>45925</v>
+        <v>45600</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>10694</v>
+        <v>9838</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>15394</v>
+        <v>15465</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>40244</v>
+        <v>40583</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>20045</v>
+        <v>21939</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>21783</v>
+        <v>21512</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>80739</v>
+        <v>81776</v>
       </c>
     </row>
     <row r="28">
@@ -2703,31 +2703,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>8851</v>
+        <v>8861</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>7765</v>
+        <v>8318</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>28965</v>
+        <v>29078</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>5384</v>
+        <v>5266</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>20250</v>
+        <v>19847</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>39941</v>
+        <v>40741</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>17340</v>
+        <v>17484</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>30848</v>
+        <v>30695</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>75571</v>
+        <v>75093</v>
       </c>
     </row>
     <row r="31">
@@ -2738,31 +2738,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>25466</v>
+        <v>25063</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>22559</v>
+        <v>23525</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>54043</v>
+        <v>53661</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>19243</v>
+        <v>19178</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>44521</v>
+        <v>43503</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>65065</v>
+        <v>65265</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>39369</v>
+        <v>39362</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>59052</v>
+        <v>58404</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>109674</v>
+        <v>109345</v>
       </c>
     </row>
     <row r="32">
@@ -2847,31 +2847,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1117</v>
+        <v>1041</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>4567</v>
+        <v>4586</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>9917</v>
+        <v>9594</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>3275</v>
+        <v>3325</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>2135</v>
+        <v>2109</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>13734</v>
+        <v>13417</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>6436</v>
+        <v>6533</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>8865</v>
+        <v>8745</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>26435</v>
+        <v>25628</v>
       </c>
     </row>
     <row r="35">
@@ -2882,31 +2882,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>10838</v>
+        <v>9846</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>15948</v>
+        <v>16394</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>24665</v>
+        <v>23676</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>15517</v>
+        <v>15148</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>12616</v>
+        <v>12496</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>28143</v>
+        <v>27469</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>21012</v>
+        <v>20721</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>23648</v>
+        <v>24423</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>46727</v>
+        <v>45589</v>
       </c>
     </row>
     <row r="36">
@@ -2991,31 +2991,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>38646</v>
+        <v>38413</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>37179</v>
+        <v>38022</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>144913</v>
+        <v>143782</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>51951</v>
+        <v>51096</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>58453</v>
+        <v>56879</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>155079</v>
+        <v>156612</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>96523</v>
+        <v>95364</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>101513</v>
+        <v>98863</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>310467</v>
+        <v>308259</v>
       </c>
     </row>
     <row r="39">
@@ -3026,31 +3026,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>69628</v>
+        <v>67470</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>63587</v>
+        <v>65981</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>189804</v>
+        <v>186969</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>85101</v>
+        <v>83436</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>93033</v>
+        <v>92349</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>195944</v>
+        <v>196403</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>142637</v>
+        <v>141798</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>146573</v>
+        <v>143245</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>369811</v>
+        <v>370866</v>
       </c>
     </row>
     <row r="40">
